--- a/AutomationTraining/src/main/resources/property/DataExcel.xlsx
+++ b/AutomationTraining/src/main/resources/property/DataExcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fh059178\eclipse-workspace\AutomationTraining\src\main\resources\property\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fh059178\git\AutoTraining\AutomationTraining\src\main\resources\property\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE974D9A-BCD9-4300-B4E5-2F7DE18E1E68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64F8CC6-0254-46CD-A3E3-973BD90D107B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{854349B5-36FB-4C7C-98F4-A8485C117ACA}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -115,7 +115,10 @@
     <t>Chaitra</t>
   </si>
   <si>
-    <t>jodUpgrade</t>
+    <t>jodUpgradeTurn</t>
+  </si>
+  <si>
+    <t>jodUpgradePayoff</t>
   </si>
 </sst>
 </file>
@@ -153,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -176,11 +179,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -196,6 +210,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,15 +525,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AFE180-07A8-4199-9547-BECCF9A81DA9}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -621,13 +636,40 @@
         <v>123</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{12B30F54-0FCE-42A8-8984-57B25E3D17EC}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{F0A18413-1D00-4CCD-B8BF-C9D2973D1F51}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{E131BD47-9CA2-4331-B537-B8D0D717B4FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
